--- a/无人机清单.xlsx
+++ b/无人机清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\nsu-drone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427749B1-EBDC-4C83-B5AF-29A9811877BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE56445-7C81-4C8B-93CF-48516E081A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="建议 1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'电子类 耗材'!$F$2:$F$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'电子类 耗材'!$F$2:$F$31</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="122">
   <si>
     <t>序号</t>
   </si>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.2abd2e8da0sHzh&amp;id=583311920871&amp;_u=l32egecq9cf8</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.797e2e8dUtfEC6&amp;id=646866813960&amp;_u=332egecqb666</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -95,54 +91,18 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>https://detail.tmall.com/item_o.htm?spm=a1z09.2.0.0.12b02e8dvvLcSl&amp;releaseId=318828&amp;_u=i32egecqf5d3&amp;bucketId=447258&amp;id=43144333772&amp;skuId=4498792030458</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?id=632919152047&amp;skuId=4525633497435</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item_o.htm?app=firefox&amp;cpp=1&amp;bucketId=447258&amp;suid=9da84966-14e1-4b67-988b-5a98c049f648&amp;spm=a2159r.13376460.0.0&amp;sp_tk=dUh3cDJnM2JQNHg&amp;un_site=0&amp;sourceType=item&amp;releaseId=318828&amp;price=8-19.6&amp;tk=uHwp2g3bP4x&amp;bxsign=scdhXlKnsQwRv60aA2bXAYNZASSmrqqcPo1V9OZQ7-WZz4AQAPVH1z-02imLN_u8rTt03-LHwiYULiAiwEkLUZbbhceykj-ZHp96QX2bUz1DpTpSIfNsiq0FbkSEVwXiEsa&amp;un=56c8754855faed0a621065bb730f8a84&amp;short_name=h.foCT2sK&amp;id=653733592411&amp;shareurl=true&amp;share_crt_v=1&amp;ut_sk=1.X12fFp0LOnUDAJGAKSxdBAzp_21646297_1647609214595.TaoPassword-QQ.ShareGlobalNavigation_1&amp;skuId=4723777949080</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?id=617461584216&amp;spm=a1z09.2.0.0.2abd2e8da0sHzh&amp;_u=l32egecq0e19</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>https://item.taobao.com/item.htm?spm=a230r.1.14.34.969d1854cr8RuD&amp;id=13954041762&amp;ns=1&amp;abbucket=3#detail</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?id=613902998667&amp;ali_refid=a3_430582_1006:1175070113:N:TOPdiAtwg5cqhUgEsfvQhUnk%2FK%2BdnGmx:a8d9bfa88456e4bdeb5141959028dacf&amp;ali_trackid=1_a8d9bfa88456e4bdeb5141959028dacf&amp;spm=a230r.1.14.1#detail</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?id=14155327893&amp;scm=20140619.rec.771458563.14155327893</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>https://item.taobao.com/item.htm?spm=a230r.1.14.32.301427f5GJzKc2&amp;id=603331087035&amp;ns=1&amp;abbucket=13#detail</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>https://detail.tmall.com/item_o.htm?spm=a230r.1.14.108.21991a80B5ZKNO&amp;ns=1&amp;abbucket=7&amp;releaseId=318828&amp;bucketId=447258&amp;id=20717343325&amp;skuId=4290559276447</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>桨叶</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>飞控连接线</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>typec连接线</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>硅胶线</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -155,34 +115,14 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>3M双面胶</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>螺丝</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>夹持台</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>个</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>51单片机智能小车套装</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>套</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>路由器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>小米路由器4A千兆版</t>
   </si>
   <si>
@@ -198,10 +138,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>平衡充</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>电压报警器</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -222,26 +158,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Q250 易损配件 单简易黑色脚架一套</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>飞控</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Pixhawk2.4.8 无GPS 简配</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>gps</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pixhawk2.4.8飞控用  M8N 原装进口</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>电子调速器</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -262,10 +182,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>电池</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>上板+下板</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -282,47 +198,19 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Bc－4s15d，平衡充+电源适配器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>M3*6mm 扁头</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>黑色</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>wifi-小车 套餐5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>桨叶，两正两反/包，黑白各两包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>TATTU FPV，（14.8V4S220045C长续航版XT60）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>DC5.52.5转接线，（XT60公转DC5.52.5公）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>图腾Q250机架，（红白机臂机架一套）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>（15cm 和 30cm）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>迷你高清转接线</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4K60HZ/公对公）2米，MiniHDMI转HDMI</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -520,14 +408,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?id=684383440924&amp;price=490&amp;sourceType=item&amp;sourceType=item&amp;suid=400b1d9d-74e9-4f52-b5e2-6006b8d7832e&amp;ut_sk=1.YSeoS94K9eIDAGe8Gd9SZ06H_21646297_1667958998048.Copy.ShareGlobalNavigation_1&amp;un=eb71ec29c9eea749ad12898721723d67&amp;share_crt_v=1&amp;un_site=0&amp;spm=a2159r.13376460.0.0&amp;sp_abtk=gray_ShareGlobalNavigation_1_code_simpleAndroid&amp;tbSocialPopKey=shareItem&amp;sp_tk=SlpWMWRZT0hTVEc%3D&amp;cpp=1&amp;shareurl=true&amp;short_name=h.Ug784sQ&amp;bxsign=scdaFvDIUYlhOoKuXlBa2ol6mD9De1C7e4YneSJcOsXkSHaEbOPuY1_cQS28fk62cx3my89TitywwCfPOmn3hVi59nQtOqz7CjSuLdCr0kWxD-aSn2kUoCufBeUCOKWASE9&amp;tk=JZV1dYOHSTG&amp;app=chrome</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?id=689998298480&amp;price=470&amp;sourceType=item&amp;sourceType=item&amp;suid=bf20e6ed-e6c2-4587-8e8c-a0578cb213ba&amp;ut_sk=1.YSeoS94K9eIDAGe8Gd9SZ06H_21646297_1667958998048.Copy.ShareGlobalNavigation_1&amp;un=eb71ec29c9eea749ad12898721723d67&amp;share_crt_v=1&amp;un_site=0&amp;spm=a2159r.13376460.0.0&amp;sp_abtk=gray_ShareGlobalNavigation_1_code_simpleAndroid&amp;tbSocialPopKey=shareItem&amp;sp_tk=bHVETGRZT0haUlI%3D&amp;cpp=1&amp;shareurl=true&amp;short_name=h.UTVbQuR&amp;bxsign=scd6NxzGJ8L-QWHXLQqex20qqZdivA40tlp40YW726wb-gznM4k_6CpisO_hYYjYuRG4ziGVh8rM1cQSgYhilmqF3RTZ_aUU-USXRg3dtIY4ch_dIqa8DQHlrcSg10o5RbV&amp;tk=luDLdYOHZRR&amp;app=chrome</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">https://item.taobao.com/item.htm?id=605382657865 </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -548,10 +428,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>https://detail.tmall.com/item.htm?abbucket=9&amp;id=589027857583&amp;ns=1&amp;spm=a230r.1.14.11.459b1373sL8EBX&amp;skuId=4853310112940</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>https://item.taobao.com/item.htm?spm=a230r.1.14.27.747665672hUZlM&amp;id=641373004410&amp;ns=1&amp;abbucket=7#detail</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -584,10 +460,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>小米路由器4A千兆版</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>64G</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -596,8 +468,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>[镀镍] USB直一micro左 0.5m</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>Pixhawk2.4.8</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>四轴多轴Pixhawk2.4.8 PIX 32位APM开源STM32飞控定点巡航失控返-淘宝网 (taobao.com)</t>
   </si>
 </sst>
 </file>
@@ -607,7 +482,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -675,13 +550,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -736,7 +604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,7 +632,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
@@ -773,7 +641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -781,9 +649,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -806,19 +671,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -847,7 +709,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="POLARIS" refreshedDate="45005.685729976853" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="39" xr:uid="{D445B6A6-BF2C-4D67-B88B-407A639DC7C0}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H42" sheet="电子类 耗材"/>
+    <worksheetSource ref="A1:H31" sheet="电子类 耗材"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="序号" numFmtId="0">
@@ -2122,12 +1984,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2174,10 +2036,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D2" s="5">
         <v>4</v>
@@ -2188,11 +2050,11 @@
       <c r="F2" s="5">
         <v>74.900000000000006</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="22">
         <f>D2*F2</f>
         <v>299.60000000000002</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="24" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2201,13 +2063,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D3" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
@@ -2215,12 +2077,12 @@
       <c r="F3" s="5">
         <v>3.2</v>
       </c>
-      <c r="G3" s="23">
-        <f t="shared" ref="G3:G37" si="0">D3*F3</f>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>132</v>
+      <c r="G3" s="22">
+        <f t="shared" ref="G3:G26" si="0">D3*F3</f>
+        <v>3.2</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -2228,13 +2090,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
@@ -2242,23 +2104,23 @@
       <c r="F4" s="5">
         <v>8</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="22">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -2267,79 +2129,79 @@
         <v>10</v>
       </c>
       <c r="F5" s="5">
-        <v>490</v>
-      </c>
-      <c r="G5" s="23">
+        <v>499.99</v>
+      </c>
+      <c r="G5" s="22">
         <f t="shared" si="0"/>
-        <v>490</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>133</v>
+        <v>499.99</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D6" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="5">
-        <v>470</v>
-      </c>
-      <c r="G6" s="23">
-        <f t="shared" si="0"/>
-        <v>470</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="5">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5">
         <v>128.69999999999999</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G6" s="22">
         <f t="shared" si="0"/>
         <v>514.79999999999995</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H6" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="11">
+        <v>94</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
@@ -2348,25 +2210,25 @@
         <v>10</v>
       </c>
       <c r="F8" s="11">
-        <v>94</v>
-      </c>
-      <c r="G8" s="23">
+        <v>487</v>
+      </c>
+      <c r="G8" s="22">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+        <v>487</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="D9" s="11">
         <v>1</v>
@@ -2375,52 +2237,52 @@
         <v>10</v>
       </c>
       <c r="F9" s="11">
-        <v>487</v>
-      </c>
-      <c r="G9" s="23">
+        <v>130</v>
+      </c>
+      <c r="G9" s="22">
         <f t="shared" si="0"/>
-        <v>487</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>136</v>
+        <v>130</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D10" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="11">
-        <v>27</v>
-      </c>
-      <c r="G10" s="23">
+        <v>12</v>
+      </c>
+      <c r="G10" s="22">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D11" s="11">
         <v>1</v>
@@ -2429,109 +2291,109 @@
         <v>10</v>
       </c>
       <c r="F11" s="11">
-        <v>130</v>
-      </c>
-      <c r="G11" s="23">
+        <v>38</v>
+      </c>
+      <c r="G11" s="22">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="D12" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="11">
-        <v>12</v>
-      </c>
-      <c r="G12" s="23">
+        <v>1</v>
+      </c>
+      <c r="G12" s="22">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D13" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="11">
-        <v>38</v>
-      </c>
-      <c r="G13" s="23">
+        <v>1</v>
+      </c>
+      <c r="G13" s="22">
         <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="14" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D14" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="11">
-        <v>10</v>
-      </c>
-      <c r="G14" s="23">
+        <v>1</v>
+      </c>
+      <c r="G14" s="22">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="D15" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>10</v>
@@ -2539,185 +2401,185 @@
       <c r="F15" s="11">
         <v>1</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="22">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>137</v>
+        <v>3</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" si="0"/>
+        <v>9.8999999999999986</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="14" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11">
+        <v>20</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="11">
         <v>1</v>
-      </c>
-      <c r="G16" s="23">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="11">
-        <v>4</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="11">
-        <v>1</v>
-      </c>
-      <c r="G17" s="23">
+        <v>12</v>
+      </c>
+      <c r="G17" s="22">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>139</v>
+        <v>12</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="D18" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="11">
-        <v>1</v>
-      </c>
-      <c r="G18" s="23">
+        <v>35</v>
+      </c>
+      <c r="G18" s="22">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D19" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F19" s="11">
-        <v>3.3</v>
-      </c>
-      <c r="G19" s="23">
+        <v>118</v>
+      </c>
+      <c r="G19" s="22">
         <f t="shared" si="0"/>
-        <v>13.2</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D20" s="11">
-        <v>5</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="15">
-        <v>404</v>
-      </c>
-      <c r="G20" s="23">
+        <v>1</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="11">
+        <v>75</v>
+      </c>
+      <c r="G20" s="22">
         <f t="shared" si="0"/>
-        <v>2020</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="14" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D21" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="11">
-        <v>12</v>
-      </c>
-      <c r="G21" s="23">
+        <v>429</v>
+      </c>
+      <c r="G21" s="22">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>86</v>
+        <v>429</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D22" s="11">
         <v>1</v>
@@ -2726,106 +2588,106 @@
         <v>10</v>
       </c>
       <c r="F22" s="11">
-        <v>35</v>
-      </c>
-      <c r="G22" s="23">
+        <v>455</v>
+      </c>
+      <c r="G22" s="22">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>86</v>
+        <v>455</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="D23" s="11">
         <v>1</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F23" s="11">
-        <v>129</v>
-      </c>
-      <c r="G23" s="23">
+        <v>135</v>
+      </c>
+      <c r="G23" s="22">
         <f t="shared" si="0"/>
-        <v>129</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="D24" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F24" s="11">
-        <v>118</v>
-      </c>
-      <c r="G24" s="23">
+        <v>13</v>
+      </c>
+      <c r="G24" s="22">
         <f t="shared" si="0"/>
-        <v>472</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>141</v>
+        <v>13</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D25" s="11">
         <v>1</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F25" s="11">
-        <v>75</v>
-      </c>
-      <c r="G25" s="23">
+        <v>5</v>
+      </c>
+      <c r="G25" s="22">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>142</v>
+        <v>5</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="D26" s="11">
         <v>1</v>
@@ -2834,480 +2696,175 @@
         <v>10</v>
       </c>
       <c r="F26" s="11">
-        <v>429</v>
-      </c>
-      <c r="G26" s="23">
-        <f t="shared" si="0"/>
-        <v>429</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="11">
-        <v>26</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="11">
-        <v>1</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="11">
-        <v>455</v>
-      </c>
-      <c r="G27" s="23">
-        <f t="shared" si="0"/>
-        <v>455</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11">
-        <v>27</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="11">
-        <v>1</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="11">
-        <v>135</v>
-      </c>
-      <c r="G28" s="23">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11">
-        <v>29</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="11">
-        <v>2</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="11">
-        <v>13</v>
-      </c>
-      <c r="G29" s="23">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11">
-        <v>30</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="11">
-        <v>9</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="11">
-        <v>5</v>
-      </c>
-      <c r="G30" s="23">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="11">
-        <v>31</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" s="11">
-        <v>2</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="25">
-        <v>19.8</v>
-      </c>
-      <c r="G31" s="23">
-        <f t="shared" si="0"/>
-        <v>39.6</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="14" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11">
-        <v>32</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="11">
-        <v>1</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="11">
-        <v>52</v>
-      </c>
-      <c r="G32" s="23">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="11">
-        <v>33</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="11">
-        <v>1</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="11">
-        <v>11</v>
-      </c>
-      <c r="G33" s="23">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="11">
-        <v>36</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="11">
-        <v>2</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="11">
-        <v>75</v>
-      </c>
-      <c r="G34" s="23">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="11">
-        <v>37</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="11">
-        <v>4</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="11">
-        <v>125</v>
-      </c>
-      <c r="G35" s="23">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="14" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="11">
-        <v>38</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="11">
-        <v>1</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="11">
-        <v>16.8</v>
-      </c>
-      <c r="G36" s="23">
-        <f t="shared" si="0"/>
-        <v>16.8</v>
-      </c>
-      <c r="H36" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="11">
-        <v>28</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D37" s="11">
-        <v>1</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="11">
         <v>235</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G26" s="22">
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
-      <c r="H37" s="27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="14" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="11"/>
+      <c r="H26" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="14" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="11"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="11"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="11"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="11"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="20">
+        <f>SUM(G2:G26)</f>
+        <v>3620.4900000000002</v>
+      </c>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="26"/>
-    </row>
-    <row r="39" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="11"/>
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="26"/>
-    </row>
-    <row r="40" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="11"/>
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="26"/>
-    </row>
-    <row r="41" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="11"/>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="26"/>
-    </row>
-    <row r="42" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A42" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19">
-        <f ca="1">SUM(F2:F57)</f>
-        <v>4341</v>
-      </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="22"/>
-    </row>
-    <row r="43" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="H43" s="18"/>
-    </row>
-    <row r="44" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="H44" s="18"/>
-    </row>
-    <row r="45" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="H45" s="18"/>
-    </row>
-    <row r="46" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="H46" s="18"/>
-    </row>
-    <row r="47" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="H47" s="18"/>
-    </row>
-    <row r="48" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="H48" s="18"/>
-    </row>
-    <row r="49" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="H49" s="18"/>
-    </row>
-    <row r="50" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="H50" s="18"/>
-    </row>
-    <row r="51" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="H51" s="18"/>
-    </row>
-    <row r="52" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="H52" s="18"/>
-    </row>
-    <row r="53" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="H53" s="18"/>
-    </row>
-    <row r="54" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="H54" s="18"/>
-    </row>
-    <row r="55" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="H55" s="18"/>
-    </row>
-    <row r="56" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="H56" s="18"/>
-    </row>
-    <row r="57" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="H57" s="18"/>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="H46" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{4FEB2CAD-1696-421B-9554-1321E2E0A878}"/>
-    <hyperlink ref="H13" r:id="rId2" xr:uid="{E0DDD2CF-3996-43D2-829B-6B0B5BC884FF}"/>
-    <hyperlink ref="H7" r:id="rId3" location="detail" xr:uid="{ED617BA3-CFE1-4B54-A652-8AC4AAFBAABC}"/>
-    <hyperlink ref="H29" r:id="rId4" xr:uid="{8BB583C0-F844-441D-80DF-F0FF8DB6F106}"/>
-    <hyperlink ref="H35" r:id="rId5" xr:uid="{7BD414C5-2C61-4DAF-8EA4-22FAB690313B}"/>
-    <hyperlink ref="H12" r:id="rId6" xr:uid="{287A4851-37E6-4D49-945F-387A15E77FCA}"/>
-    <hyperlink ref="H31" r:id="rId7" xr:uid="{CE3712F2-AAC0-43D7-87B1-2CAEDE5019B0}"/>
-    <hyperlink ref="H10" r:id="rId8" xr:uid="{11B41236-792E-1640-97CE-E057CDA9688F}"/>
-    <hyperlink ref="H3" r:id="rId9" location="detail" xr:uid="{FFBEFDDC-6788-0346-92D9-615CC22DB209}"/>
-    <hyperlink ref="H4" r:id="rId10" location="detail" xr:uid="{DAE5784A-74A3-6E4A-877E-22C5B013DA91}"/>
-    <hyperlink ref="H30" r:id="rId11" xr:uid="{B0B410C3-66AB-CD41-9AD2-6E02B06FA703}"/>
-    <hyperlink ref="H18" r:id="rId12" location="detail" xr:uid="{49D3C6C1-8322-6848-B74C-53E84353FAD9}"/>
-    <hyperlink ref="H32" r:id="rId13" location="detail" xr:uid="{B1063C0C-7CCB-4545-9349-7E3BB048BBFE}"/>
-    <hyperlink ref="H21" r:id="rId14" xr:uid="{B7FAD7C5-FC8E-4607-BDB2-1CAD4B553240}"/>
-    <hyperlink ref="H34" r:id="rId15" xr:uid="{2887CFA5-A168-472C-9472-DEDE22F7BBD8}"/>
-    <hyperlink ref="H36" r:id="rId16" xr:uid="{F8D2538C-BD53-4E49-BE5C-7E54C39BF886}"/>
-    <hyperlink ref="H23" r:id="rId17" xr:uid="{A88333BA-09DB-4426-8C7D-140BC847546A}"/>
-    <hyperlink ref="H15:H17" r:id="rId18" location="detail" display="https://item.taobao.com/item.htm?spm=a230r.1.14.32.301427f5GJzKc2&amp;id=603331087035&amp;ns=1&amp;abbucket=13#detail" xr:uid="{3BAED604-5B6B-4544-B0E9-52A71805F47E}"/>
-    <hyperlink ref="H14" r:id="rId19" xr:uid="{E3C8A76A-4FFA-46A4-B7DC-5850DBDF8C30}"/>
-    <hyperlink ref="H27" r:id="rId20" xr:uid="{C856BDFF-B6A8-4893-AB75-57E8813A0E63}"/>
-    <hyperlink ref="H28" r:id="rId21" xr:uid="{51D2CBE2-6E71-4F07-841F-96E0707B1452}"/>
-    <hyperlink ref="H37" r:id="rId22" xr:uid="{1BCB0298-D1E0-4829-8245-71465997B219}"/>
-    <hyperlink ref="H22" r:id="rId23" xr:uid="{FAC07C66-9180-40A9-B2F3-5F5B91AA2B55}"/>
-    <hyperlink ref="H24" r:id="rId24" location="detail" xr:uid="{6183A411-4748-40B4-B7BB-C575039B05A4}"/>
-    <hyperlink ref="H25" r:id="rId25" location="detail" xr:uid="{B89DE487-B4E8-4E5D-B97D-F10507CAC79C}"/>
-    <hyperlink ref="H20" r:id="rId26" xr:uid="{25FC353C-D3EF-4FED-8432-E48E5F5CF743}"/>
-    <hyperlink ref="H19" r:id="rId27" xr:uid="{8DD51D1C-00DB-41A8-86F6-156186A28752}"/>
-    <hyperlink ref="H26" r:id="rId28" xr:uid="{6C8956BD-ACD3-49C7-BA21-13C0C32C2232}"/>
-    <hyperlink ref="H11" r:id="rId29" xr:uid="{8482D259-5AB1-4F8B-A28A-AA67BD418261}"/>
-    <hyperlink ref="H9" r:id="rId30" xr:uid="{4CC52FA2-AA37-49CA-B5F4-4DA4C1DF2AB6}"/>
-    <hyperlink ref="H8" r:id="rId31" xr:uid="{33C46DED-84C2-4F94-B4BF-2F9E43BFA39C}"/>
+    <hyperlink ref="H11" r:id="rId2" xr:uid="{E0DDD2CF-3996-43D2-829B-6B0B5BC884FF}"/>
+    <hyperlink ref="H6" r:id="rId3" location="detail" xr:uid="{ED617BA3-CFE1-4B54-A652-8AC4AAFBAABC}"/>
+    <hyperlink ref="H24" r:id="rId4" xr:uid="{8BB583C0-F844-441D-80DF-F0FF8DB6F106}"/>
+    <hyperlink ref="H10" r:id="rId5" xr:uid="{287A4851-37E6-4D49-945F-387A15E77FCA}"/>
+    <hyperlink ref="H3" r:id="rId6" location="detail" xr:uid="{FFBEFDDC-6788-0346-92D9-615CC22DB209}"/>
+    <hyperlink ref="H4" r:id="rId7" location="detail" xr:uid="{DAE5784A-74A3-6E4A-877E-22C5B013DA91}"/>
+    <hyperlink ref="H25" r:id="rId8" xr:uid="{B0B410C3-66AB-CD41-9AD2-6E02B06FA703}"/>
+    <hyperlink ref="H15" r:id="rId9" location="detail" xr:uid="{49D3C6C1-8322-6848-B74C-53E84353FAD9}"/>
+    <hyperlink ref="H17" r:id="rId10" xr:uid="{B7FAD7C5-FC8E-4607-BDB2-1CAD4B553240}"/>
+    <hyperlink ref="H12:H14" r:id="rId11" location="detail" display="https://item.taobao.com/item.htm?spm=a230r.1.14.32.301427f5GJzKc2&amp;id=603331087035&amp;ns=1&amp;abbucket=13#detail" xr:uid="{3BAED604-5B6B-4544-B0E9-52A71805F47E}"/>
+    <hyperlink ref="H22" r:id="rId12" xr:uid="{C856BDFF-B6A8-4893-AB75-57E8813A0E63}"/>
+    <hyperlink ref="H23" r:id="rId13" xr:uid="{51D2CBE2-6E71-4F07-841F-96E0707B1452}"/>
+    <hyperlink ref="H26" r:id="rId14" xr:uid="{1BCB0298-D1E0-4829-8245-71465997B219}"/>
+    <hyperlink ref="H18" r:id="rId15" xr:uid="{FAC07C66-9180-40A9-B2F3-5F5B91AA2B55}"/>
+    <hyperlink ref="H19" r:id="rId16" location="detail" xr:uid="{6183A411-4748-40B4-B7BB-C575039B05A4}"/>
+    <hyperlink ref="H20" r:id="rId17" location="detail" xr:uid="{B89DE487-B4E8-4E5D-B97D-F10507CAC79C}"/>
+    <hyperlink ref="H16" r:id="rId18" xr:uid="{8DD51D1C-00DB-41A8-86F6-156186A28752}"/>
+    <hyperlink ref="H21" r:id="rId19" xr:uid="{6C8956BD-ACD3-49C7-BA21-13C0C32C2232}"/>
+    <hyperlink ref="H9" r:id="rId20" xr:uid="{8482D259-5AB1-4F8B-A28A-AA67BD418261}"/>
+    <hyperlink ref="H8" r:id="rId21" xr:uid="{4CC52FA2-AA37-49CA-B5F4-4DA4C1DF2AB6}"/>
+    <hyperlink ref="H7" r:id="rId22" xr:uid="{33C46DED-84C2-4F94-B4BF-2F9E43BFA39C}"/>
+    <hyperlink ref="H5" r:id="rId23" location="detail" display="https://item.taobao.com/item.htm?spm=a21n57.1.0.0.1173523c0XaWl7&amp;id=529099342921&amp;ns=1&amp;abbucket=0 - detail" xr:uid="{CB2F4E6B-1947-4529-84D1-189C2FF50EA5}"/>
   </hyperlinks>
   <pageMargins left="0.33" right="0.18" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -3331,15 +2888,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="B3">
         <v>4341</v>
@@ -3347,7 +2904,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="B4">
         <v>490</v>
@@ -3358,7 +2915,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="B5">
         <v>487</v>
@@ -3369,7 +2926,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="B6">
         <v>470</v>
@@ -3380,7 +2937,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B7">
         <v>455</v>
@@ -3391,7 +2948,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="B8">
         <v>429</v>
@@ -3402,7 +2959,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="B9">
         <v>404</v>
@@ -3413,7 +2970,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>235</v>
@@ -3424,7 +2981,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B11">
         <v>135</v>
@@ -3435,7 +2992,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="B12">
         <v>130</v>
@@ -3446,7 +3003,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>129</v>
@@ -3457,7 +3014,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B14">
         <v>128.69999999999999</v>
@@ -3468,7 +3025,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="B15">
         <v>125</v>
@@ -3479,7 +3036,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="B16">
         <v>118</v>
@@ -3490,7 +3047,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="B17">
         <v>94</v>
@@ -3501,7 +3058,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="B18">
         <v>75</v>
@@ -3512,7 +3069,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B19">
         <v>75</v>
@@ -3523,7 +3080,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B20">
         <v>74.900000000000006</v>
@@ -3534,7 +3091,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="B21">
         <v>52</v>
@@ -3545,7 +3102,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="B22">
         <v>38</v>
@@ -3556,7 +3113,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="B23">
         <v>35</v>
@@ -3567,7 +3124,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="B24">
         <v>27</v>
@@ -3578,7 +3135,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="B25">
         <v>19.8</v>
@@ -3589,7 +3146,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B26">
         <v>16.8</v>
@@ -3600,7 +3157,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B27">
         <v>13</v>
@@ -3611,7 +3168,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B28">
         <v>12</v>
@@ -3622,7 +3179,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="B29">
         <v>12</v>
@@ -3633,7 +3190,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B30">
         <v>11</v>
@@ -3644,7 +3201,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B31">
         <v>10</v>
@@ -3655,7 +3212,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="B32">
         <v>9.8000000000000007</v>
@@ -3666,7 +3223,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -3677,7 +3234,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>6.5</v>
@@ -3688,7 +3245,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -3699,7 +3256,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="B36">
         <v>3.3</v>
@@ -3710,7 +3267,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B37">
         <v>3.2</v>
@@ -3721,7 +3278,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3732,7 +3289,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3743,7 +3300,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3754,7 +3311,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3775,7 +3332,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>